--- a/Assets/Editor/Sheets/Tags.xlsx
+++ b/Assets/Editor/Sheets/Tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4E976-BA87-4C56-B936-A680598DD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D665DB5-319C-4F44-8009-D5DC7E9173AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +121,17 @@
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -460,57 +459,58 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +551,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +562,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +617,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Sheets/Tags.xlsx
+++ b/Assets/Editor/Sheets/Tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D665DB5-319C-4F44-8009-D5DC7E9173AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B572167-E7BF-454A-9373-6B67847A02ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用资源，如零件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,21 +463,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -518,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +554,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +565,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,19 +604,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>